--- a/model_inputs/financial_reports/clinical/PHC.xlsx
+++ b/model_inputs/financial_reports/clinical/PHC.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2E78A5-5F79-46C1-B3A3-7451140CF75D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752AE522-D2F2-4048-BCEB-9BB1A6089A67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="4" r:id="rId1"/>
@@ -571,7 +571,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,8 +629,8 @@
         <v>1113</v>
       </c>
       <c r="B2" s="6">
-        <f t="shared" ref="B2:B9" si="0">C2-D2-E2-F2</f>
-        <v>322497.55000000005</v>
+        <f>C2-D2</f>
+        <v>410713.04000000004</v>
       </c>
       <c r="C2" s="7">
         <v>2364054.21</v>
@@ -645,8 +645,8 @@
         <v>88049.43</v>
       </c>
       <c r="G2" s="8">
-        <f t="shared" ref="G2:G10" si="1">H2-I2-J2-K2</f>
-        <v>159759.28000000003</v>
+        <f>H2-I2</f>
+        <v>243092.27000000002</v>
       </c>
       <c r="H2" s="7">
         <v>2285786.6</v>
@@ -666,8 +666,8 @@
         <v>1213</v>
       </c>
       <c r="B3" s="6">
-        <f t="shared" si="0"/>
-        <v>102553.54000000018</v>
+        <f t="shared" ref="B3:B11" si="0">C3-D3</f>
+        <v>205739.70000000019</v>
       </c>
       <c r="C3" s="7">
         <v>2170864.83</v>
@@ -682,8 +682,8 @@
         <v>40473.760000000002</v>
       </c>
       <c r="G3" s="8">
-        <f t="shared" si="1"/>
-        <v>68655.399999999907</v>
+        <f t="shared" ref="G3:G11" si="1">H3-I3</f>
+        <v>91155.399999999907</v>
       </c>
       <c r="H3" s="7">
         <v>1816466.49</v>
@@ -704,7 +704,7 @@
       </c>
       <c r="B4" s="6">
         <f t="shared" si="0"/>
-        <v>54771.039999999914</v>
+        <v>180303.39999999991</v>
       </c>
       <c r="C4" s="7">
         <v>1216722.42</v>
@@ -720,7 +720,7 @@
       </c>
       <c r="G4" s="8">
         <f t="shared" si="1"/>
-        <v>163532.22999999998</v>
+        <v>242832.22999999998</v>
       </c>
       <c r="H4" s="7">
         <v>1499426.84</v>
@@ -741,7 +741,7 @@
       </c>
       <c r="B5" s="6">
         <f t="shared" si="0"/>
-        <v>53266.979999999981</v>
+        <v>92368.729999999981</v>
       </c>
       <c r="C5" s="7">
         <v>1289458.6499999999</v>
@@ -757,7 +757,7 @@
       </c>
       <c r="G5" s="8">
         <f t="shared" si="1"/>
-        <v>164938.90999999992</v>
+        <v>244238.90999999992</v>
       </c>
       <c r="H5" s="7">
         <v>1479410.63</v>
@@ -778,7 +778,7 @@
       </c>
       <c r="B6" s="6">
         <f t="shared" si="0"/>
-        <v>58807.53</v>
+        <v>104993.98999999999</v>
       </c>
       <c r="C6" s="7">
         <v>1266820</v>
@@ -794,7 +794,7 @@
       </c>
       <c r="G6" s="8">
         <f t="shared" si="1"/>
-        <v>157716.22999999998</v>
+        <v>242516.22999999998</v>
       </c>
       <c r="H6" s="7">
         <v>1451473.23</v>
@@ -815,7 +815,7 @@
       </c>
       <c r="B7" s="6">
         <f t="shared" si="0"/>
-        <v>54895.059999999859</v>
+        <v>129724.84999999986</v>
       </c>
       <c r="C7" s="7">
         <v>1289220.17</v>
@@ -831,7 +831,7 @@
       </c>
       <c r="G7" s="8">
         <f t="shared" si="1"/>
-        <v>153192.32000000007</v>
+        <v>237992.32000000007</v>
       </c>
       <c r="H7" s="7">
         <v>1472460.45</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="B8" s="6">
         <f t="shared" si="0"/>
-        <v>103086.8499999998</v>
+        <v>163503.5399999998</v>
       </c>
       <c r="C8" s="7">
         <v>1281492.6599999999</v>
@@ -868,7 +868,7 @@
       </c>
       <c r="G8" s="8">
         <f t="shared" si="1"/>
-        <v>153371.31000000006</v>
+        <v>236371.31000000006</v>
       </c>
       <c r="H8" s="7">
         <v>1488944.79</v>
@@ -889,7 +889,7 @@
       </c>
       <c r="B9" s="6">
         <f t="shared" si="0"/>
-        <v>1166954.4900000002</v>
+        <v>1244377.6700000004</v>
       </c>
       <c r="C9" s="7">
         <v>2276508.2400000002</v>
@@ -905,7 +905,7 @@
       </c>
       <c r="G9" s="8">
         <f t="shared" si="1"/>
-        <v>1267205.8800000001</v>
+        <v>1361305.8800000001</v>
       </c>
       <c r="H9" s="7">
         <v>2628098.87</v>
@@ -925,8 +925,8 @@
         <v>1913</v>
       </c>
       <c r="B10" s="6">
-        <f>C10-D10-E10-F10</f>
-        <v>102779.91000000006</v>
+        <f t="shared" si="0"/>
+        <v>186638.31000000006</v>
       </c>
       <c r="C10" s="7">
         <v>1406717.33</v>
@@ -942,7 +942,7 @@
       </c>
       <c r="G10" s="8">
         <f t="shared" si="1"/>
-        <v>142539.59000000003</v>
+        <v>191013.51</v>
       </c>
       <c r="H10" s="2">
         <v>1517257.04</v>
@@ -962,8 +962,8 @@
         <v>2013</v>
       </c>
       <c r="B11" s="6">
-        <f>C11-D11-E11-F11</f>
-        <v>113648.56999999989</v>
+        <f t="shared" si="0"/>
+        <v>173575.12999999989</v>
       </c>
       <c r="C11" s="7">
         <v>1586595.42</v>
@@ -978,8 +978,8 @@
         <v>59926.559999999998</v>
       </c>
       <c r="G11" s="8">
-        <f>H11-I11-J11-K11</f>
-        <v>145970.02999999991</v>
+        <f t="shared" si="1"/>
+        <v>186443.89999999991</v>
       </c>
       <c r="H11" s="7">
         <v>1587292.74</v>
